--- a/tut11/Part 2/Output 2 Lab 11 .xlsx
+++ b/tut11/Part 2/Output 2 Lab 11 .xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DA0EE89F50224A85AEFD8F6FB37AB309159ECE5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9420496-9B57-4A90-9BBD-AFDDA819C6D0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_Grade_Sorted" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2_Roll_Sorted" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3_Scaled_Grade_sorted" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1064,7 +1076,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1205,15 +1217,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>608734</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>2598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323451</xdr:colOff>
+      <xdr:colOff>808360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28504</xdr:rowOff>
+      <xdr:rowOff>2527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,8 +1248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="2886075"/>
-          <a:ext cx="3190476" cy="571429"/>
+          <a:off x="1465984" y="2730212"/>
+          <a:ext cx="3273603" cy="545451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,25 +1523,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -1983,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -2145,7 +2157,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -2199,7 +2211,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -2307,7 +2319,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +2373,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -2415,7 +2427,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>219</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2469,7 +2481,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2631,7 +2643,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2739,7 +2751,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2847,7 +2859,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -2955,7 +2967,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -3090,7 +3102,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -3144,7 +3156,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>171</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -3306,7 +3318,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -3360,7 +3372,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3387,7 +3399,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -3414,7 +3426,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3441,7 +3453,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -3468,7 +3480,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -3495,7 +3507,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -3522,7 +3534,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -3549,7 +3561,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -3630,7 +3642,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>175</v>
       </c>
@@ -3765,7 +3777,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -3792,7 +3804,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -3819,7 +3831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -3873,7 +3885,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -3900,7 +3912,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>196</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>65</v>
       </c>
@@ -3981,7 +3993,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -4008,7 +4020,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -4035,7 +4047,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -4062,7 +4074,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4089,7 +4101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -4116,7 +4128,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -4170,7 +4182,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>80</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -4278,7 +4290,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4359,7 +4371,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -4386,7 +4398,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>151</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>189</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -4494,7 +4506,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>195</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -4548,7 +4560,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -4576,7 +4588,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:G105">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G105">
     <sortCondition descending="1" ref="G4:G105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4585,30 +4597,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4666,7 +4678,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4704,7 +4716,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4839,7 +4851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -5019,7 +5031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -5109,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -5199,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -5226,7 +5238,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -5253,7 +5265,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -5280,7 +5292,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -5334,7 +5346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>204</v>
       </c>
@@ -5361,7 +5373,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -5388,7 +5400,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -5415,7 +5427,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -5442,7 +5454,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -5469,7 +5481,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -5496,7 +5508,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -5523,7 +5535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -5550,7 +5562,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -5577,7 +5589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -5604,7 +5616,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -5631,7 +5643,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -5658,7 +5670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -5685,7 +5697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5712,7 +5724,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -5739,7 +5751,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -5766,7 +5778,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -5793,7 +5805,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -5820,7 +5832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -5847,7 +5859,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -5874,7 +5886,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5901,7 +5913,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -5928,7 +5940,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -5955,7 +5967,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -5982,7 +5994,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -6009,7 +6021,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -6036,7 +6048,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -6063,7 +6075,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -6090,7 +6102,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -6117,7 +6129,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -6171,7 +6183,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -6198,7 +6210,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -6225,7 +6237,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -6252,7 +6264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -6279,7 +6291,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -6306,7 +6318,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -6333,7 +6345,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -6360,7 +6372,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -6414,7 +6426,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -6441,7 +6453,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -6468,7 +6480,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -6495,7 +6507,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -6522,7 +6534,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -6549,7 +6561,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -6576,7 +6588,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -6630,7 +6642,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -6657,7 +6669,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -6684,7 +6696,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -6711,7 +6723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -6738,7 +6750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -6765,7 +6777,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -6792,7 +6804,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -6819,7 +6831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -6846,7 +6858,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -6873,7 +6885,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>189</v>
       </c>
@@ -6900,7 +6912,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -6954,7 +6966,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -6981,7 +6993,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -7008,7 +7020,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -7035,7 +7047,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -7062,7 +7074,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -7089,7 +7101,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -7116,7 +7128,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -7143,7 +7155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -7170,7 +7182,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -7197,7 +7209,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -7224,7 +7236,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -7251,7 +7263,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -7305,7 +7317,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -7332,7 +7344,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -7359,7 +7371,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -7386,7 +7398,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -7413,7 +7425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -7440,7 +7452,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>129</v>
       </c>
@@ -7467,7 +7479,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -7494,7 +7506,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>73</v>
       </c>
@@ -7521,7 +7533,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>64</v>
       </c>
@@ -7548,7 +7560,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -7575,7 +7587,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -7602,7 +7614,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -7629,7 +7641,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -7657,7 +7669,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:H105">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H105">
     <sortCondition ref="A4:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7666,29 +7678,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>230</v>
       </c>
@@ -7716,7 +7728,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>206</v>
       </c>
@@ -7751,7 +7763,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>209</v>
       </c>
@@ -7791,7 +7803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>210</v>
       </c>
@@ -7833,7 +7845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>211</v>
       </c>
@@ -7875,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>212</v>
       </c>
@@ -7917,7 +7929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>213</v>
       </c>
@@ -7959,7 +7971,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>214</v>
       </c>
@@ -8001,7 +8013,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>215</v>
       </c>
@@ -8043,7 +8055,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>216</v>
       </c>
@@ -8077,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>226</v>
       </c>
@@ -8103,7 +8115,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>227</v>
       </c>
@@ -8119,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>228</v>
       </c>
@@ -8135,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F14" s="2" t="s">
         <v>243</v>
       </c>
@@ -8144,20 +8156,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +8186,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -8192,7 +8204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -8210,7 +8222,7 @@
         <v>99.488338191823104</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -8228,7 +8240,7 @@
         <v>98.03206996855053</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -8246,7 +8258,7 @@
         <v>97.244897955970728</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -8264,7 +8276,7 @@
         <v>97.034985440274014</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -8282,7 +8294,7 @@
         <v>96.45772594339094</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -8300,7 +8312,7 @@
         <v>95.959183679252689</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -8318,7 +8330,7 @@
         <v>95.211370267301902</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -8336,7 +8348,7 @@
         <v>93.938775503135574</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -8354,7 +8366,7 @@
         <v>92.626822169827207</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -8372,7 +8384,7 @@
         <v>92.285714276718039</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -8390,7 +8402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -8408,7 +8420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -8426,7 +8438,7 @@
         <v>89.642095060052071</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -8444,7 +8456,7 @@
         <v>88.769156158113816</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -8462,7 +8474,7 @@
         <v>87.171677980346601</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -8480,7 +8492,7 @@
         <v>86.429679912651551</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>86.063045576770534</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -8516,7 +8528,7 @@
         <v>85.870999033847539</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -8534,7 +8546,7 @@
         <v>85.853540241981406</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -8552,7 +8564,7 @@
         <v>85.050436465606538</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -8570,7 +8582,7 @@
         <v>84.945683798211974</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>247</v>
       </c>
@@ -8588,7 +8600,7 @@
         <v>83.775945685956131</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>249</v>
       </c>
@@ -8606,7 +8618,7 @@
         <v>83.252182348983268</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>251</v>
       </c>
@@ -8624,7 +8636,7 @@
         <v>83.208535390268494</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>253</v>
       </c>
@@ -8642,7 +8654,7 @@
         <v>83.156159056571227</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>255</v>
       </c>
@@ -8660,7 +8672,7 @@
         <v>83.147429681588676</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>257</v>
       </c>
@@ -8678,7 +8690,7 @@
         <v>82.885548013102252</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>259</v>
       </c>
@@ -8696,7 +8708,7 @@
         <v>82.230843841886184</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>261</v>
       </c>
@@ -8714,7 +8726,7 @@
         <v>82.152279341340275</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>263</v>
       </c>
@@ -8732,7 +8744,7 @@
         <v>82.099903007642979</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>265</v>
       </c>
@@ -8750,7 +8762,7 @@
         <v>81.951503381533655</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>267</v>
       </c>
@@ -8768,7 +8780,7 @@
         <v>81.890397672853851</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>268</v>
       </c>
@@ -8786,7 +8798,7 @@
         <v>81.611057212501279</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>270</v>
       </c>
@@ -8804,7 +8816,7 @@
         <v>81.488845774191134</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>272</v>
       </c>
@@ -8822,7 +8834,7 @@
         <v>81.349175544014855</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>274</v>
       </c>
@@ -8840,7 +8852,7 @@
         <v>81.15712900109186</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>276</v>
       </c>
@@ -8858,7 +8870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>278</v>
       </c>
@@ -8876,7 +8888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>280</v>
       </c>
@@ -8894,7 +8906,7 @@
         <v>79.850249572245929</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>282</v>
       </c>
@@ -8912,7 +8924,7 @@
         <v>79.580698823852643</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>284</v>
       </c>
@@ -8930,7 +8942,7 @@
         <v>79.43094841406861</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -8948,7 +8960,7 @@
         <v>79.386023289336421</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>55</v>
       </c>
@@ -8966,7 +8978,7 @@
         <v>78.966722131159102</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>57</v>
       </c>
@@ -8984,7 +8996,7 @@
         <v>78.936772042014297</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>60</v>
       </c>
@@ -9002,7 +9014,7 @@
         <v>78.742096507498033</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -9020,7 +9032,7 @@
         <v>78.682196329208395</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -9038,7 +9050,7 @@
         <v>78.607321133301397</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -9056,7 +9068,7 @@
         <v>78.607321133301397</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
@@ -9074,7 +9086,7 @@
         <v>78.405158072006444</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -9092,7 +9104,7 @@
         <v>78.375207982861625</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -9110,7 +9122,7 @@
         <v>78.128119796834454</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -9128,7 +9140,7 @@
         <v>77.686356076291048</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -9146,7 +9158,7 @@
         <v>77.349417640799459</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -9164,7 +9176,7 @@
         <v>77.034941767673942</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -9182,7 +9194,7 @@
         <v>76.960066553796906</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -9200,7 +9212,7 @@
         <v>76.945091518209523</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
@@ -9218,7 +9230,7 @@
         <v>76.86272877755377</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -9236,7 +9248,7 @@
         <v>76.398502494644248</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
@@ -9254,7 +9266,7 @@
         <v>76.016638934420456</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>88</v>
       </c>
@@ -9272,7 +9284,7 @@
         <v>75.582362722685716</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
@@ -9290,7 +9302,7 @@
         <v>75.574875213877036</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -9308,7 +9320,7 @@
         <v>75.297836938705046</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -9326,7 +9338,7 @@
         <v>75.207986689240627</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -9344,7 +9356,7 @@
         <v>74.968386029992175</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>97</v>
       </c>
@@ -9362,7 +9374,7 @@
         <v>74.953410976434725</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>99</v>
       </c>
@@ -9380,7 +9392,7 @@
         <v>74.706322790407555</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>101</v>
       </c>
@@ -9398,7 +9410,7 @@
         <v>74.399334444060798</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>103</v>
       </c>
@@ -9416,7 +9428,7 @@
         <v>74.174708820399729</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>105</v>
       </c>
@@ -9434,7 +9446,7 @@
         <v>73.927620634372559</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>107</v>
       </c>
@@ -9452,7 +9464,7 @@
         <v>73.695507483932772</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>109</v>
       </c>
@@ -9470,7 +9482,7 @@
         <v>73.470881860271703</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>111</v>
       </c>
@@ -9488,7 +9500,7 @@
         <v>71.898502494644248</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>113</v>
       </c>
@@ -9506,7 +9518,7 @@
         <v>71.636439273029723</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>115</v>
       </c>
@@ -9524,7 +9536,7 @@
         <v>71.374376051415155</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>117</v>
       </c>
@@ -9542,7 +9554,7 @@
         <v>71.209650588073671</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>119</v>
       </c>
@@ -9560,7 +9572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>121</v>
       </c>
@@ -9578,7 +9590,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>123</v>
       </c>
@@ -9596,7 +9608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>125</v>
       </c>
@@ -9614,7 +9626,7 @@
         <v>69.971518985070503</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>127</v>
       </c>
@@ -9632,7 +9644,7 @@
         <v>69.965822784818783</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>129</v>
       </c>
@@ -9650,7 +9662,7 @@
         <v>69.954430377479895</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -9668,7 +9680,7 @@
         <v>69.89746835445635</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>133</v>
       </c>
@@ -9686,7 +9698,7 @@
         <v>69.581329114030041</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>135</v>
       </c>
@@ -9704,7 +9716,7 @@
         <v>69.532911387966351</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -9722,7 +9734,7 @@
         <v>69.515822780375743</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>139</v>
       </c>
@@ -9740,7 +9752,7 @@
         <v>69.470253164691087</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>141</v>
       </c>
@@ -9758,7 +9770,7 @@
         <v>69.453164557100465</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>143</v>
       </c>
@@ -9776,7 +9788,7 @@
         <v>69.327848096879023</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>145</v>
       </c>
@@ -9794,7 +9806,7 @@
         <v>69.145569620469473</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>147</v>
       </c>
@@ -9812,7 +9824,7 @@
         <v>69.137025316674183</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -9830,7 +9842,7 @@
         <v>69.099999997949368</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>151</v>
       </c>
@@ -9848,7 +9860,7 @@
         <v>69.045886071633959</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>153</v>
       </c>
@@ -9866,7 +9878,7 @@
         <v>68.991772152153985</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>155</v>
       </c>
@@ -9884,7 +9896,7 @@
         <v>68.840822780546631</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>157</v>
       </c>
@@ -9902,7 +9914,7 @@
         <v>68.800949365113695</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>159</v>
       </c>
@@ -9920,7 +9932,7 @@
         <v>68.601582274278073</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>161</v>
       </c>
@@ -9938,7 +9950,7 @@
         <v>68.484810124687399</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>163</v>
       </c>
@@ -9956,7 +9968,7 @@
         <v>68.479113924435666</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>165</v>
       </c>
@@ -9974,7 +9986,7 @@
         <v>68.459177213301487</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>167</v>
       </c>
@@ -9992,7 +10004,7 @@
         <v>68.180063291599993</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>169</v>
       </c>
@@ -10010,7 +10022,7 @@
         <v>68.017721519489186</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>171</v>
       </c>
@@ -10028,7 +10040,7 @@
         <v>67.33417721586477</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>173</v>
       </c>
@@ -10046,7 +10058,7 @@
         <v>67.243037970824545</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>175</v>
       </c>
@@ -10064,7 +10076,7 @@
         <v>67.191772148052721</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>177</v>
       </c>
@@ -10082,7 +10094,7 @@
         <v>67.094936709596212</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>179</v>
       </c>
@@ -10100,7 +10112,7 @@
         <v>67.037974679737218</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>181</v>
       </c>
@@ -10118,7 +10130,7 @@
         <v>66.815822781059282</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>183</v>
       </c>
@@ -10136,7 +10148,7 @@
         <v>65.875949363575714</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>185</v>
       </c>
@@ -10154,7 +10166,7 @@
         <v>65.556962026441269</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>187</v>
       </c>
@@ -10172,7 +10184,7 @@
         <v>65.2664556974009</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>189</v>
       </c>
@@ -10190,7 +10202,7 @@
         <v>65.163924051857236</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>191</v>
       </c>
@@ -10208,7 +10220,7 @@
         <v>64.423417718373813</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>193</v>
       </c>
@@ -10226,7 +10238,7 @@
         <v>64.315189872578443</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>195</v>
       </c>
@@ -10244,7 +10256,7 @@
         <v>64.281012657397213</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>196</v>
       </c>
@@ -10262,7 +10274,7 @@
         <v>63.96202531342734</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>198</v>
       </c>
@@ -10280,7 +10292,7 @@
         <v>63.88797468281318</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>200</v>
       </c>
@@ -10298,7 +10310,7 @@
         <v>63.52911392341035</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>202</v>
       </c>
@@ -10316,7 +10328,7 @@
         <v>63.378164558638439</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>204</v>
       </c>
@@ -10334,7 +10346,7 @@
         <v>63.33829113637006</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>286</v>
       </c>
@@ -10352,7 +10364,7 @@
         <v>63.193037971849868</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>288</v>
       </c>
@@ -10370,7 +10382,7 @@
         <v>63.096202533393367</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>290</v>
       </c>
@@ -10388,7 +10400,7 @@
         <v>62.919620250400094</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>292</v>
       </c>
@@ -10406,7 +10418,7 @@
         <v>62.891139242306046</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>294</v>
       </c>
@@ -10424,7 +10436,7 @@
         <v>62.66898734362811</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>296</v>
       </c>
@@ -10442,7 +10454,7 @@
         <v>62.332911392067622</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>298</v>
       </c>
@@ -10460,7 +10472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>300</v>
       </c>
@@ -10478,7 +10490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>302</v>
       </c>
@@ -10496,7 +10508,7 @@
         <v>59.842812360025576</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>304</v>
       </c>
@@ -10514,7 +10526,7 @@
         <v>59.713837889424781</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>306</v>
       </c>
@@ -10532,7 +10544,7 @@
         <v>59.383340797023436</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>308</v>
       </c>
@@ -10550,7 +10562,7 @@
         <v>59.298701298575672</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>310</v>
       </c>
@@ -10568,7 +10580,7 @@
         <v>58.984326018626838</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>312</v>
       </c>
@@ -10586,7 +10598,7 @@
         <v>58.915808332631585</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>314</v>
       </c>
@@ -10604,7 +10616,7 @@
         <v>58.875503806336859</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>316</v>
       </c>
@@ -10622,7 +10634,7 @@
         <v>58.798925214115343</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>318</v>
       </c>
@@ -10640,7 +10652,7 @@
         <v>58.762651143352016</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>320</v>
       </c>
@@ -10658,7 +10670,7 @@
         <v>58.307210031044733</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>322</v>
       </c>
@@ -10676,7 +10688,7 @@
         <v>57.182713837381584</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>324</v>
       </c>
@@ -10694,7 +10706,7 @@
         <v>55.558441559258114</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>326</v>
       </c>
@@ -10712,7 +10724,7 @@
         <v>52.916480071995785</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>328</v>
       </c>
@@ -10730,7 +10742,7 @@
         <v>52.777429467403032</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>330</v>
       </c>
@@ -10748,7 +10760,7 @@
         <v>52.743170624405401</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>332</v>
       </c>
@@ -10766,7 +10778,7 @@
         <v>52.632333184349726</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>334</v>
       </c>
@@ -10784,7 +10796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>336</v>
       </c>
@@ -10802,7 +10814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>338</v>
       </c>
@@ -10820,7 +10832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>340</v>
       </c>
@@ -10838,7 +10850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>342</v>
       </c>
@@ -10856,7 +10868,7 @@
         <v>37.489446662290803</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>344</v>
       </c>
